--- a/yavesh_fixed.xlsx
+++ b/yavesh_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotamr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E7DDF-D4DC-48E6-BFFF-B246A2E2FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC536B98-410B-416E-AE3A-F0DB9A0017DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8B599841-EA7B-4D78-8C98-839538696F3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B599841-EA7B-4D78-8C98-839538696F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1024queue" sheetId="7" r:id="rId1"/>
@@ -276,37 +276,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9504.7000000000007</c:v>
+                  <c:v>9510.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27550.799999999999</c:v>
+                  <c:v>27508.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45605.5</c:v>
+                  <c:v>45622.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63715.1</c:v>
+                  <c:v>63613.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81695.7</c:v>
+                  <c:v>81810.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99923.4</c:v>
+                  <c:v>100005.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101199.8</c:v>
+                  <c:v>101840.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102324.5</c:v>
+                  <c:v>101626.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95366.9</c:v>
+                  <c:v>102496.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95757.8</c:v>
+                  <c:v>95663.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100986.5</c:v>
+                  <c:v>95236.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,37 +318,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.8781999999999999E-2</c:v>
+                  <c:v>4.7899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8878999999999999E-2</c:v>
+                  <c:v>4.8399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0721000000000002E-2</c:v>
+                  <c:v>5.11E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2553999999999997E-2</c:v>
+                  <c:v>5.2699999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4841000000000001E-2</c:v>
+                  <c:v>5.5300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9733000000000003E-2</c:v>
+                  <c:v>7.0300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0739979999999996</c:v>
+                  <c:v>6.9714999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.234178999999999</c:v>
+                  <c:v>12.4945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.957777</c:v>
+                  <c:v>16.363499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.100826999999999</c:v>
+                  <c:v>23.113499999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.255822999999999</c:v>
+                  <c:v>26.455100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,37 +718,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8843.2000000000007</c:v>
+                  <c:v>8838.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25605.9</c:v>
+                  <c:v>25592.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42417.3</c:v>
+                  <c:v>42414.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59081.7</c:v>
+                  <c:v>59155.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76145.3</c:v>
+                  <c:v>76021.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92635.4</c:v>
+                  <c:v>92199.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92076.3</c:v>
+                  <c:v>92058.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92891.9</c:v>
+                  <c:v>92603.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92154.2</c:v>
+                  <c:v>91328.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92524.5</c:v>
+                  <c:v>92258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88756.1</c:v>
+                  <c:v>92426.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,37 +760,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.2057000000000005E-2</c:v>
+                  <c:v>8.1799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7786000000000003E-2</c:v>
+                  <c:v>8.77E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1885999999999995E-2</c:v>
+                  <c:v>9.2100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6457000000000001E-2</c:v>
+                  <c:v>9.6100000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9934999999999996E-2</c:v>
+                  <c:v>9.9500000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33011299999999999</c:v>
+                  <c:v>0.58779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9258550000000003</c:v>
+                  <c:v>8.7083999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.508330000000001</c:v>
+                  <c:v>14.590400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.498407</c:v>
+                  <c:v>19.924600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.802655999999999</c:v>
+                  <c:v>23.051400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.215306999999999</c:v>
+                  <c:v>25.927099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,37 +1160,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8638</c:v>
+                  <c:v>8636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24993.7</c:v>
+                  <c:v>24975.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41461.199999999997</c:v>
+                  <c:v>41379.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57754.400000000001</c:v>
+                  <c:v>57752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74320.7</c:v>
+                  <c:v>74188.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90798.399999999994</c:v>
+                  <c:v>89931</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90743.7</c:v>
+                  <c:v>89891.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87641.7</c:v>
+                  <c:v>86743.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90738.7</c:v>
+                  <c:v>87315.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90744</c:v>
+                  <c:v>87533.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90475</c:v>
+                  <c:v>88576.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,37 +1202,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.14332600000000001</c:v>
+                  <c:v>0.1434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15331400000000001</c:v>
+                  <c:v>0.15379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16289100000000001</c:v>
+                  <c:v>0.16289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.167404</c:v>
+                  <c:v>0.16750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.173012</c:v>
+                  <c:v>0.1731</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30052299999999998</c:v>
+                  <c:v>0.70189999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6663250000000005</c:v>
+                  <c:v>9.2705000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.901202000000001</c:v>
+                  <c:v>17.206700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.545566999999998</c:v>
+                  <c:v>21.7651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.309791000000001</c:v>
+                  <c:v>25.391200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.341362</c:v>
+                  <c:v>27.703099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDE5EBB-A2DE-4F1C-A57D-EF852DA4C639}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4591,10 +4591,10 @@
         <v>9519</v>
       </c>
       <c r="B2">
-        <v>9504.7000000000007</v>
+        <v>9510.2999999999993</v>
       </c>
       <c r="C2">
-        <v>4.8781999999999999E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4602,10 +4602,10 @@
         <v>27606</v>
       </c>
       <c r="B3">
-        <v>27550.799999999999</v>
+        <v>27508.6</v>
       </c>
       <c r="C3">
-        <v>4.8878999999999999E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4613,10 +4613,10 @@
         <v>45693</v>
       </c>
       <c r="B4">
-        <v>45605.5</v>
+        <v>45622.9</v>
       </c>
       <c r="C4">
-        <v>5.0721000000000002E-2</v>
+        <v>5.11E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4624,10 +4624,10 @@
         <v>63780</v>
       </c>
       <c r="B5">
-        <v>63715.1</v>
+        <v>63613.3</v>
       </c>
       <c r="C5">
-        <v>5.2553999999999997E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4635,10 +4635,10 @@
         <v>81867</v>
       </c>
       <c r="B6">
-        <v>81695.7</v>
+        <v>81810.2</v>
       </c>
       <c r="C6">
-        <v>5.4841000000000001E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4646,10 +4646,10 @@
         <v>99954</v>
       </c>
       <c r="B7">
-        <v>99923.4</v>
+        <v>100005.6</v>
       </c>
       <c r="C7">
-        <v>6.9733000000000003E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4657,10 +4657,10 @@
         <v>118041</v>
       </c>
       <c r="B8">
-        <v>101199.8</v>
+        <v>101840.9</v>
       </c>
       <c r="C8">
-        <v>7.0739979999999996</v>
+        <v>6.9714999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4668,10 +4668,10 @@
         <v>136128</v>
       </c>
       <c r="B9">
-        <v>102324.5</v>
+        <v>101626.5</v>
       </c>
       <c r="C9">
-        <v>12.234178999999999</v>
+        <v>12.4945</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4679,10 +4679,10 @@
         <v>154215</v>
       </c>
       <c r="B10">
-        <v>95366.9</v>
+        <v>102496.9</v>
       </c>
       <c r="C10">
-        <v>19.957777</v>
+        <v>16.363499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4690,10 +4690,10 @@
         <v>172302</v>
       </c>
       <c r="B11">
-        <v>95757.8</v>
+        <v>95663.7</v>
       </c>
       <c r="C11">
-        <v>23.100826999999999</v>
+        <v>23.113499999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4701,10 +4701,10 @@
         <v>190389</v>
       </c>
       <c r="B12">
-        <v>100986.5</v>
+        <v>95236.1</v>
       </c>
       <c r="C12">
-        <v>23.255822999999999</v>
+        <v>26.455100000000002</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
@@ -4723,7 +4723,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4747,10 +4747,10 @@
         <v>8847</v>
       </c>
       <c r="B2">
-        <v>8843.2000000000007</v>
+        <v>8838.7000000000007</v>
       </c>
       <c r="C2">
-        <v>8.2057000000000005E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4758,10 +4758,10 @@
         <v>25657</v>
       </c>
       <c r="B3">
-        <v>25605.9</v>
+        <v>25592.6</v>
       </c>
       <c r="C3">
-        <v>8.7786000000000003E-2</v>
+        <v>8.77E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4769,10 +4769,10 @@
         <v>42467</v>
       </c>
       <c r="B4">
-        <v>42417.3</v>
+        <v>42414.7</v>
       </c>
       <c r="C4">
-        <v>9.1885999999999995E-2</v>
+        <v>9.2100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4780,10 +4780,10 @@
         <v>59277</v>
       </c>
       <c r="B5">
-        <v>59081.7</v>
+        <v>59155.8</v>
       </c>
       <c r="C5">
-        <v>9.6457000000000001E-2</v>
+        <v>9.6100000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4791,10 +4791,10 @@
         <v>76087</v>
       </c>
       <c r="B6">
-        <v>76145.3</v>
+        <v>76021.899999999994</v>
       </c>
       <c r="C6">
-        <v>9.9934999999999996E-2</v>
+        <v>9.9500000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4802,10 +4802,10 @@
         <v>92897</v>
       </c>
       <c r="B7">
-        <v>92635.4</v>
+        <v>92199.4</v>
       </c>
       <c r="C7">
-        <v>0.33011299999999999</v>
+        <v>0.58779999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4813,10 +4813,10 @@
         <v>109707</v>
       </c>
       <c r="B8">
-        <v>92076.3</v>
+        <v>92058.2</v>
       </c>
       <c r="C8">
-        <v>8.9258550000000003</v>
+        <v>8.7083999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4824,10 +4824,10 @@
         <v>126517</v>
       </c>
       <c r="B9">
-        <v>92891.9</v>
+        <v>92603.1</v>
       </c>
       <c r="C9">
-        <v>14.508330000000001</v>
+        <v>14.590400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4835,10 +4835,10 @@
         <v>143327</v>
       </c>
       <c r="B10">
-        <v>92154.2</v>
+        <v>91328.9</v>
       </c>
       <c r="C10">
-        <v>19.498407</v>
+        <v>19.924600000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4846,10 +4846,10 @@
         <v>160137</v>
       </c>
       <c r="B11">
-        <v>92524.5</v>
+        <v>92258</v>
       </c>
       <c r="C11">
-        <v>22.802655999999999</v>
+        <v>23.051400000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4857,10 +4857,10 @@
         <v>176947</v>
       </c>
       <c r="B12">
-        <v>88756.1</v>
+        <v>92426.6</v>
       </c>
       <c r="C12">
-        <v>28.215306999999999</v>
+        <v>25.927099999999999</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
@@ -4878,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C9D7F-A88F-43BB-8222-9BB64789D0DF}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4903,10 +4903,10 @@
         <v>8645</v>
       </c>
       <c r="B2">
-        <v>8638</v>
+        <v>8636</v>
       </c>
       <c r="C2">
-        <v>0.14332600000000001</v>
+        <v>0.1434</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4914,10 +4914,10 @@
         <v>25071</v>
       </c>
       <c r="B3">
-        <v>24993.7</v>
+        <v>24975.9</v>
       </c>
       <c r="C3">
-        <v>0.15331400000000001</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4925,10 +4925,10 @@
         <v>41497</v>
       </c>
       <c r="B4">
-        <v>41461.199999999997</v>
+        <v>41379.599999999999</v>
       </c>
       <c r="C4">
-        <v>0.16289100000000001</v>
+        <v>0.16289999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4936,10 +4936,10 @@
         <v>57923</v>
       </c>
       <c r="B5">
-        <v>57754.400000000001</v>
+        <v>57752</v>
       </c>
       <c r="C5">
-        <v>0.167404</v>
+        <v>0.16750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4947,10 +4947,10 @@
         <v>74349</v>
       </c>
       <c r="B6">
-        <v>74320.7</v>
+        <v>74188.3</v>
       </c>
       <c r="C6">
-        <v>0.173012</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4958,10 +4958,10 @@
         <v>90775</v>
       </c>
       <c r="B7">
-        <v>90798.399999999994</v>
+        <v>89931</v>
       </c>
       <c r="C7">
-        <v>0.30052299999999998</v>
+        <v>0.70189999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4969,10 +4969,10 @@
         <v>107201</v>
       </c>
       <c r="B8">
-        <v>90743.7</v>
+        <v>89891.8</v>
       </c>
       <c r="C8">
-        <v>8.6663250000000005</v>
+        <v>9.2705000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4980,10 +4980,10 @@
         <v>123627</v>
       </c>
       <c r="B9">
-        <v>87641.7</v>
+        <v>86743.6</v>
       </c>
       <c r="C9">
-        <v>16.901202000000001</v>
+        <v>17.206700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4991,10 +4991,10 @@
         <v>140053</v>
       </c>
       <c r="B10">
-        <v>90738.7</v>
+        <v>87315.3</v>
       </c>
       <c r="C10">
-        <v>19.545566999999998</v>
+        <v>21.7651</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5002,10 +5002,10 @@
         <v>156479</v>
       </c>
       <c r="B11">
-        <v>90744</v>
+        <v>87533.4</v>
       </c>
       <c r="C11">
-        <v>23.309791000000001</v>
+        <v>25.391200000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5013,10 +5013,10 @@
         <v>172905</v>
       </c>
       <c r="B12">
-        <v>90475</v>
+        <v>88576.2</v>
       </c>
       <c r="C12">
-        <v>26.341362</v>
+        <v>27.703099999999999</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.35">
